--- a/review.xlsx
+++ b/review.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,12 +29,17 @@
     <t>1）从数据库到页面   SSM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2）前台框架的搭建 css+html5
+用js控制，前后台用json传参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,7 +86,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -91,12 +96,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -143,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,9 +191,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,6 +226,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -384,20 +402,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>42191</v>
       </c>
@@ -413,13 +431,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
     </row>
   </sheetData>
@@ -433,12 +454,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -447,12 +468,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/review.xlsx
+++ b/review.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,12 +34,18 @@
 用js控制，前后台用json传参</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>技术选型：
+前台页面：bootstrap + kendo UI
+后台服务：SSM + mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,10 +92,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -97,7 +106,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -159,7 +177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,10 +209,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,7 +243,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -402,20 +418,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,29 +439,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
         <v>42191</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:2" ht="40.5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5">
+        <v>42192</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -454,12 +492,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -468,12 +506,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
